--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\WMITR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A829710F-2603-4DE2-8A98-726FFBF2FA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25875" windowHeight="11055"/>
+    <workbookView xWindow="49965" yWindow="570" windowWidth="17160" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Congressional Budget Office</t>
   </si>
@@ -53,13 +54,40 @@
   </si>
   <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>https://www.cbo.gov/sites/default/files/114th-congress-2015-2016/reports/50923-marginaltaxrates.pdf</t>
+  </si>
+  <si>
+    <t>final paragraph of first page</t>
+  </si>
+  <si>
+    <t>NOTES FOR TX UPDATE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated to newer number and removed portion of total rate attributable to state </t>
+  </si>
+  <si>
+    <t>income tax as TX has no income tax. The CBO says that the average marginal tax rate for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">those earning less than 450% of the poverty level is 31% in the updated document, and </t>
+  </si>
+  <si>
+    <t>that state income tax contributes to this by about 3% on average, so 3% is deducted from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31% to get 28%. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +107,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,16 +148,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -209,6 +254,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,6 +306,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,88 +498,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="5">
         <v>2012</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{101F2FAC-A2E5-8E47-AB65-AC0EE21C971A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -509,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
+++ b/InputData/io-model/WMITR/Worker Marg Income Tax Rate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\WMITR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/wmitr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A829710F-2603-4DE2-8A98-726FFBF2FA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A00208-294F-5D43-8D6C-BB5F0A2A2658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49965" yWindow="570" windowWidth="17160" windowHeight="11805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="WMITR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Congressional Budget Office</t>
   </si>
@@ -54,40 +54,13 @@
   </si>
   <si>
     <t>Marginal Income Tax Rate (dimensionless)</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>https://www.cbo.gov/sites/default/files/114th-congress-2015-2016/reports/50923-marginaltaxrates.pdf</t>
-  </si>
-  <si>
-    <t>final paragraph of first page</t>
-  </si>
-  <si>
-    <t>NOTES FOR TX UPDATE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updated to newer number and removed portion of total rate attributable to state </t>
-  </si>
-  <si>
-    <t>income tax as TX has no income tax. The CBO says that the average marginal tax rate for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">those earning less than 450% of the poverty level is 31% in the updated document, and </t>
-  </si>
-  <si>
-    <t>that state income tax contributes to this by about 3% on average, so 3% is deducted from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31% to get 28%. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,21 +80,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,18 +106,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,138 +456,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="5">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>2012</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="I5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I14" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{101F2FAC-A2E5-8E47-AB65-AC0EE21C971A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -642,25 +530,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
